--- a/biology/Histoire de la zoologie et de la botanique/Frederick_Wallace_Edwards/Frederick_Wallace_Edwards.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Frederick_Wallace_Edwards/Frederick_Wallace_Edwards.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frederick Wallace Edwards (28 novembre 1888, Fletton (en), Peterborough – 15 novembre 1940, Londres) est un entomologiste britannique spécialisé dans l'ordre des diptères.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Edwards travaillait au musée d'histoire naturelle de Londres (Natural History Museum) qui conserve sa collection constituée au fil de ses expéditions scientifiques en Norvège et en Suède (1923), Suisse et Autriche (1925), Argentine et Chili (1926-27), avec Edgar Shannon Anderson (1897-1969), Corse et États-Unis (1928), au Kenya et en Ouganda (1934) et dans la chaîne des Pyrénées (1935).
 </t>
@@ -542,7 +556,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour une liste partielle de ses travaux, voir les références sur le site : Sabrosky's Family Group Names in Diptera
 </t>
